--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2060645.903684753</v>
+        <v>2156815.46915174</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6970360.774383804</v>
+        <v>6663746.095359935</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1116356.600945279</v>
+        <v>806345.8827095104</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9879612.858507521</v>
+        <v>9992380.112476811</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>270.9229766339174</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>162.9947207958796</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>165.1561246648799</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>66.70865780356735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>59.2443341810084</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -804,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>184.0861322340802</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>54.30080173848786</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>76.60886799452514</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>255.4163034881938</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>287.4014127556835</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>318.5643619250586</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>147.445065564638</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>33.77936158462987</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>230.2634979541059</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>278.637255722594</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>111.7848761944317</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>113.2870337730222</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>13.58397576725071</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>6.799270092391444</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>175.3135296855424</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.26879610203987</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2118382056171</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91175464720472</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>158.4482401433277</v>
+        <v>68.34093116330482</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1895,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.70138737407909</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>183.0172251110638</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534547</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292512</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.6911677128805</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>90.57445924393026</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2476,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>73.34931970216554</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>98.80399951402478</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>273.628934045296</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292664</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>78.51287301450918</v>
       </c>
       <c r="G31" t="n">
-        <v>81.69153618667653</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,16 +3006,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3196,10 +3198,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>73.53680714572737</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>163.4467615872994</v>
       </c>
     </row>
     <row r="35">
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>37.59617708813238</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3521,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>136.9968647819697</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.48923120238923</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>89.05624873001878</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3797,7 +3799,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>20.45352712646396</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>167.2486777701801</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3995,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>1.357197189121357</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.50675189249552</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>21.68724038440379</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1695.806495672432</v>
+        <v>1795.940509280693</v>
       </c>
       <c r="C2" t="n">
-        <v>1695.806495672432</v>
+        <v>1426.977992340281</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1426.977992340281</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1041.189739742037</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>630.2038349524291</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>211.9501583307498</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>211.9501583307498</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>138.9642385015909</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>397.0764468060707</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>769.5640925927189</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1200.634914689012</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1624.04891581168</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>1978.679112633672</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2243.673398054131</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332392</v>
+        <v>2182.668444102707</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>1962.764877629056</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942546</v>
+        <v>1962.764877629056</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942546</v>
+        <v>1962.764877629056</v>
       </c>
       <c r="W2" t="n">
-        <v>1695.806495672432</v>
+        <v>1962.764877629056</v>
       </c>
       <c r="X2" t="n">
-        <v>1695.806495672432</v>
+        <v>1795.940509280693</v>
       </c>
       <c r="Y2" t="n">
-        <v>1695.806495672432</v>
+        <v>1795.940509280693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>665.4693852489434</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>665.4693852489434</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.4693852489434</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>506.2319302434878</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.6973722703728</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673418</v>
+        <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>108.2048630683008</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>338.9063907138126</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>501.7702691852914</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>987.40208238748</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1501.594138030028</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>1905.5637351199</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2212.781883695908</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2305.608548885989</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2144.55478592678</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>1945.051103087511</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>1716.871275549721</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1481.719167317978</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1227.481810589777</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1019.630310384244</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>833.6847222690114</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>102.158320899041</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>102.158320899041</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>102.158320899041</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>102.158320899041</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>102.158320899041</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>102.158320899041</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>102.158320899041</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>102.158320899041</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>88.80529410181586</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>197.432664936566</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>322.3541198950595</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>449.7398382896739</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>551.3848716885926</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="S4" t="n">
-        <v>621.3293701160914</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="T4" t="n">
-        <v>621.3293701160914</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="U4" t="n">
-        <v>621.3293701160914</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="V4" t="n">
-        <v>621.3293701160914</v>
+        <v>360.1545870487317</v>
       </c>
       <c r="W4" t="n">
-        <v>621.3293701160914</v>
+        <v>102.158320899041</v>
       </c>
       <c r="X4" t="n">
-        <v>393.339819218074</v>
+        <v>102.158320899041</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.339819218074</v>
+        <v>102.158320899041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2070.717079250664</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
         <v>1036.358670716696</v>
@@ -4571,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="X5" t="n">
-        <v>2070.717079250664</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y5" t="n">
-        <v>2070.717079250664</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="6">
@@ -4626,16 +4628,16 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4656,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>88.06354907756634</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036444</v>
@@ -4750,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1139.146815977587</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C8" t="n">
-        <v>1139.146815977587</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>1139.146815977587</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E8" t="n">
-        <v>753.3585633793432</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
@@ -4808,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2353.028897504873</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>2353.028897504873</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.746656041709</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,52 +4883,52 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>318.4909684781771</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="C10" t="n">
-        <v>318.4909684781771</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D10" t="n">
-        <v>168.3743290658414</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036444</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>714.4077965627466</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>566.2611379969305</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084169</v>
+        <v>351.9727148150932</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1972.793246711597</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>1603.830729771185</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1603.830729771185</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1218.042477172941</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>807.0565723833333</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>391.9841222283298</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>94.40052183709702</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>87.53257224882283</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>443.8173522282013</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1098.540684363501</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1549.57489761191</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2083.106802283834</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2629.885619342616</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3132.858090221953</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>3846.213177668899</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4252.552290210087</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4376.628612441142</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4266.337943968237</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4060.360196352459</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>3806.829719626295</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3475.766832282724</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3122.99817701261</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>2749.53241875153</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2359.393086775719</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>962.564310297748</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>788.111281016621</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>639.1768713553697</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>479.9394163499143</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>333.4048583767992</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>197.0417582094173</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>106.5398638472849</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>87.53257224882283</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>181.2098417394402</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>419.4740407197873</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>786.1722010324527</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
-        <v>1233.448526254769</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1706.971569809223</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2117.932849227278</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2428.432440703381</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2586.073998349981</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2585.929644942496</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2456.491758435976</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2263.848758113832</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2035.780911248247</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1800.628803016504</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1546.391446288303</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1338.53994608277</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1130.779647317816</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>252.8758491427331</v>
+        <v>972.7495048756253</v>
       </c>
       <c r="C13" t="n">
-        <v>252.8758491427331</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="D13" t="n">
-        <v>252.8758491427331</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E13" t="n">
-        <v>234.4225197467332</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>87.53257224882283</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>87.53257224882283</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>87.53257224882283</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>87.53257224882283</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>132.6552046957584</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>336.6423876446348</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>653.2021860931309</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>997.3592316926799</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1338.767608398545</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1638.097207318958</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1870.704707752617</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1756.629119731959</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1534.862504301484</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1245.759637427128</v>
+        <v>1667.240599230343</v>
       </c>
       <c r="V13" t="n">
-        <v>991.0751492212411</v>
+        <v>1667.240599230343</v>
       </c>
       <c r="W13" t="n">
-        <v>701.6579791842805</v>
+        <v>1377.823429193382</v>
       </c>
       <c r="X13" t="n">
-        <v>473.6684282862632</v>
+        <v>1149.833878295365</v>
       </c>
       <c r="Y13" t="n">
-        <v>252.8758491427331</v>
+        <v>1149.833878295365</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2083.083915184502</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>1714.12139824409</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1355.85569963734</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>970.0674470390952</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>559.0815422494877</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>144.0090920944842</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>87.53257224882283</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>87.53257224882283</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>443.8173522282013</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1098.540684363501</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1549.57489761191</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2083.106802283834</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2629.885619342616</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3132.858090221953</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>3846.213177668899</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4252.552290210087</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4376.628612441142</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4376.628612441142</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4170.650864825364</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>3917.1203880992</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3586.057500755629</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3233.288845485515</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>2859.823087224435</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2469.683755248624</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>962.564310297748</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>788.111281016621</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>639.1768713553697</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>479.9394163499143</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4048583767992</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>197.0417582094173</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>106.5398638472849</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>87.53257224882283</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>181.2098417394402</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>419.4740407197873</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>786.1722010324527</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
-        <v>1233.448526254769</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1706.971569809223</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2117.932849227278</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2428.432440703381</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2586.073998349981</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2585.929644942496</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2456.491758435976</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2263.848758113832</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2035.780911248247</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1800.628803016504</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1546.391446288303</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1338.53994608277</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1130.779647317816</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.4185115788819</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="C16" t="n">
-        <v>699.482328650975</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D16" t="n">
-        <v>549.3656892386392</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E16" t="n">
-        <v>401.4525956562461</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F16" t="n">
-        <v>401.4525956562461</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G16" t="n">
-        <v>233.749759030965</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>87.53257224882283</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>87.53257224882283</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>132.6552046957584</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>336.6423876446348</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>653.2021860931309</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>997.3592316926799</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1338.767608398545</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1638.097207318958</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1870.704707752617</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1948.315003905132</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1948.315003905132</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1948.315003905132</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1948.315003905132</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1788.26627648763</v>
+        <v>1094.92639878493</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.849106450669</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="X16" t="n">
-        <v>1270.859555552651</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.066976409121</v>
+        <v>805.5092287479694</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,10 +5500,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5513,25 +5515,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4338.827767043611</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5543,13 +5545,13 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
@@ -5558,7 +5560,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1120.662598458018</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C19" t="n">
-        <v>951.7264155301116</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1385.724257814702</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V19" t="n">
-        <v>1385.724257814702</v>
+        <v>1482.374715279778</v>
       </c>
       <c r="W19" t="n">
-        <v>1385.724257814702</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X19" t="n">
-        <v>1157.734706916684</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y19" t="n">
-        <v>1157.734706916684</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5734,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001576</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089249</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5832,10 +5834,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3155.648591032969</v>
+        <v>392.8404695303064</v>
       </c>
       <c r="C22" t="n">
-        <v>3155.648591032969</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D22" t="n">
-        <v>3155.648591032969</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>3155.648591032969</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>3008.758643535059</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>3008.758643535059</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>4586.365838246547</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>4364.599222816073</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U22" t="n">
-        <v>4075.496355941717</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V22" t="n">
-        <v>4075.496355941717</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W22" t="n">
-        <v>3786.079185904756</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X22" t="n">
-        <v>3558.089635006739</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y22" t="n">
-        <v>3337.297055863209</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>351.301436796792</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>685.1208104866384</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1549.639626139993</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.189928969822</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N23" t="n">
-        <v>3507.942201196468</v>
+        <v>2749.9835782646</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6014,25 +6016,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6172,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="26">
@@ -6218,31 +6220,31 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O26" t="n">
-        <v>3944.053400686433</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
-        <v>4338.827767043611</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1023.336921276364</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C28" t="n">
-        <v>854.4007383484569</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D28" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6406,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1856.541446393568</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T28" t="n">
-        <v>1856.541446393568</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U28" t="n">
-        <v>1567.438579519211</v>
+        <v>1368.353530759742</v>
       </c>
       <c r="V28" t="n">
-        <v>1312.754091313324</v>
+        <v>1113.669042553855</v>
       </c>
       <c r="W28" t="n">
-        <v>1023.336921276364</v>
+        <v>824.2518725168941</v>
       </c>
       <c r="X28" t="n">
-        <v>1023.336921276364</v>
+        <v>596.2623216188767</v>
       </c>
       <c r="Y28" t="n">
-        <v>1023.336921276364</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6457,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6467,19 +6469,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2949.638265046256</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3496.417082105038</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3999.389552984375</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4394.163919341553</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.0341484576122</v>
+        <v>906.8613965158539</v>
       </c>
       <c r="C31" t="n">
-        <v>619.0979655297053</v>
+        <v>737.925213587947</v>
       </c>
       <c r="D31" t="n">
-        <v>619.0979655297053</v>
+        <v>587.8085741756113</v>
       </c>
       <c r="E31" t="n">
-        <v>471.1848719473122</v>
+        <v>439.8954805932182</v>
       </c>
       <c r="F31" t="n">
-        <v>324.2949244494018</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6643,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U31" t="n">
-        <v>1734.57685067423</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V31" t="n">
-        <v>1479.892362468343</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="W31" t="n">
-        <v>1190.475192431382</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="X31" t="n">
-        <v>1190.475192431382</v>
+        <v>1127.653975659384</v>
       </c>
       <c r="Y31" t="n">
-        <v>969.682613287852</v>
+        <v>906.8613965158539</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O32" t="n">
-        <v>3944.053400686433</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
-        <v>4338.827767043611</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3605.40475736146</v>
+        <v>3384.235206686048</v>
       </c>
       <c r="C34" t="n">
-        <v>3436.468574433553</v>
+        <v>3215.299023758141</v>
       </c>
       <c r="D34" t="n">
-        <v>3286.351935021218</v>
+        <v>3065.182384345805</v>
       </c>
       <c r="E34" t="n">
-        <v>3138.438841438825</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="F34" t="n">
-        <v>2991.548893940914</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G34" t="n">
         <v>2917.269290763412</v>
@@ -6880,28 +6882,28 @@
         <v>4778.051722419721</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419721</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S34" t="n">
-        <v>4586.365838246547</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T34" t="n">
-        <v>4586.365838246547</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U34" t="n">
-        <v>4297.262971372191</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="V34" t="n">
-        <v>4297.262971372191</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="W34" t="n">
-        <v>4007.84580133523</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="X34" t="n">
-        <v>4007.84580133523</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="Y34" t="n">
-        <v>3787.0532221917</v>
+        <v>3565.883671516287</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6925,7 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001584</v>
@@ -6990,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320248</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008795</v>
@@ -7035,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,7 +7046,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7053,7 +7055,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>3531.125154183958</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>3362.188971256051</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>3212.072331843715</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>3064.159238261322</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>4488.948855545364</v>
       </c>
       <c r="V37" t="n">
-        <v>909.2731541783409</v>
+        <v>4450.972919092706</v>
       </c>
       <c r="W37" t="n">
-        <v>619.8559841413803</v>
+        <v>4161.555749055745</v>
       </c>
       <c r="X37" t="n">
-        <v>391.866433243363</v>
+        <v>3933.566198157728</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.0738540998329</v>
+        <v>3712.773619014198</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7156,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7175,19 +7177,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.6966825353827</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C40" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7354,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.57685067423</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V40" t="n">
-        <v>1190.789495593986</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W40" t="n">
-        <v>901.3723255570255</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X40" t="n">
-        <v>673.3827746590082</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y40" t="n">
-        <v>653.6966825353827</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2324.190995730073</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>1955.228478789661</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1596.962780182911</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1211.174527584667</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>800.1886227950591</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>385.1161726400556</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>87.53257224882283</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>87.53257224882283</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>443.8173522282013</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>777.6367259180478</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1228.670939166457</v>
+        <v>1172.647446689875</v>
       </c>
       <c r="M41" t="n">
-        <v>1762.202843838381</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N41" t="n">
-        <v>2519.335071014465</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O41" t="n">
-        <v>3399.29972134392</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P41" t="n">
-        <v>3794.074087701099</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
-        <v>4252.552290210087</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4376.628612441142</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4286.672805643143</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4080.695058027365</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>3827.164581301201</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3827.164581301201</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3474.395926031087</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3100.930167770007</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2710.790835794195</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>962.564310297748</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>788.111281016621</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>639.1768713553697</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>479.9394163499143</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4048583767992</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>197.0417582094173</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>106.5398638472849</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>87.53257224882283</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>181.2098417394402</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>419.4740407197873</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>786.1722010324527</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>1233.448526254769</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1706.971569809223</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2117.932849227278</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2428.432440703381</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2586.073998349981</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2585.929644942496</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2456.491758435976</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2263.848758113832</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2035.780911248247</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1800.628803016504</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1546.391446288303</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1338.53994608277</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1130.779647317816</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>666.3283487463808</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C43" t="n">
-        <v>666.3283487463808</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D43" t="n">
-        <v>645.6682203358112</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>645.6682203358112</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>498.7782728379008</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>331.0754362126197</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>184.8582494304775</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>87.53257224882283</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>132.6552046957584</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>336.6423876446348</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>653.2021860931309</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>997.3592316926799</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1338.767608398545</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1638.097207318958</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>1870.704707752617</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1948.315003905132</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1948.315003905132</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T43" t="n">
-        <v>1948.315003905132</v>
+        <v>1697.574950508515</v>
       </c>
       <c r="U43" t="n">
-        <v>1659.212137030776</v>
+        <v>1408.472083634158</v>
       </c>
       <c r="V43" t="n">
-        <v>1404.527648824889</v>
+        <v>1408.472083634158</v>
       </c>
       <c r="W43" t="n">
-        <v>1115.110478787928</v>
+        <v>1119.054913597198</v>
       </c>
       <c r="X43" t="n">
-        <v>887.1209278899109</v>
+        <v>891.0653626991802</v>
       </c>
       <c r="Y43" t="n">
-        <v>666.3283487463808</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2324.190995730073</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>1955.228478789661</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1596.962780182911</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1211.174527584667</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>800.1886227950591</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>385.1161726400556</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>87.53257224882283</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>87.53257224882283</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>443.8173522282013</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1046.4015943957</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1497.435807644109</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2030.967712316034</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N44" t="n">
-        <v>2577.746529374816</v>
+        <v>3515.905934867957</v>
       </c>
       <c r="O44" t="n">
-        <v>3080.719000254153</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>3794.074087701099</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4252.552290210087</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4376.628612441142</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4266.337943968237</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4060.360196352459</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>3806.829719626295</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3475.766832282724</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3474.395926031087</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3100.930167770007</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2710.790835794195</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>962.564310297748</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>788.111281016621</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>639.1768713553697</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>479.9394163499143</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>333.4048583767992</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>197.0417582094173</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>106.5398638472849</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>87.53257224882283</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>181.2098417394402</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>419.4740407197873</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>786.1722010324527</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1233.448526254769</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1706.971569809223</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2117.932849227278</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2428.432440703381</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2586.073998349981</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2585.929644942496</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2456.491758435976</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2263.848758113832</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2035.780911248247</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1800.628803016504</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1546.391446288303</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1338.53994608277</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1130.779647317816</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1112.634136258447</v>
+        <v>827.5554641779659</v>
       </c>
       <c r="C46" t="n">
-        <v>943.69795333054</v>
+        <v>658.619281250059</v>
       </c>
       <c r="D46" t="n">
-        <v>793.5813139182043</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E46" t="n">
-        <v>645.6682203358112</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F46" t="n">
-        <v>498.7782728379008</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G46" t="n">
-        <v>331.0754362126197</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H46" t="n">
-        <v>184.8582494304775</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
-        <v>87.53257224882283</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>132.6552046957584</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>336.6423876446348</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>653.2021860931309</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>997.3592316926799</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1338.767608398545</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1638.097207318958</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>1870.704707752617</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1948.315003905132</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1948.315003905132</v>
+        <v>1712.67054725564</v>
       </c>
       <c r="V46" t="n">
-        <v>1948.315003905132</v>
+        <v>1457.986059049753</v>
       </c>
       <c r="W46" t="n">
-        <v>1658.897833868172</v>
+        <v>1457.986059049753</v>
       </c>
       <c r="X46" t="n">
-        <v>1430.908282970154</v>
+        <v>1229.996508151736</v>
       </c>
       <c r="Y46" t="n">
-        <v>1210.115703826624</v>
+        <v>1009.203929008206</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>159.9845957362331</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516219</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>159.6492432176817</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>159.6492432176817</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>67.53663776704306</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>67.53663776704252</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>231.5010718068643</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>103.7862464855143</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9893,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>67.53663776704306</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10115,22 +10117,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>11.64153443578837</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,13 +10363,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>103.7862464855143</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>67.53663776704306</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10823,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>103.7862464855143</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>104.3976710547477</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>212.4781920376786</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11078,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11297,28 +11299,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>271.4796651289418</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>57.67224444723729</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.77765968053451</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>4.518450496394905</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>128.1651665445293</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>238.6960097401157</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>93.68940318050031</v>
+        <v>183.7967121605232</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890414</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>143.1305928078582</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>69.12041821276424</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8.313350008393172e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>21.55565338574732</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>54.18055567039052</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>73.08464294440363</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24412,13 +24414,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>90.96502581741711</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>12.58290416031684</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>66.90817500842206</v>
       </c>
       <c r="G31" t="n">
-        <v>84.33427207235169</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24892,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>92.48900111330086</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>55.1378917647954</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.55208449419945</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>199.0954221497056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.13151305815705</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>128.1619458917484</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>52.30027150598914</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>347.8837715282917</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>83.32522828944178</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26074,16 +26076,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>264.5245978212091</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>921288.9999286069</v>
+        <v>920416.8538014741</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>806364.7387904468</v>
+        <v>845257.7042194332</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>806364.7387904469</v>
+        <v>845257.7042194334</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>845257.7042194334</v>
+        <v>845257.7042194336</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>845257.7042194335</v>
+        <v>845257.7042194334</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>806364.7387904469</v>
+        <v>845257.7042194334</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>806364.7387904469</v>
+        <v>845257.7042194335</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516057</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
-        <v>553292.8139140324</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="F2" t="n">
-        <v>553292.8139140324</v>
+        <v>575768.5909861253</v>
       </c>
       <c r="G2" t="n">
         <v>575768.5909861259</v>
       </c>
       <c r="H2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="I2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.590986126</v>
       </c>
       <c r="J2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="K2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="L2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="M2" t="n">
         <v>575768.5909861259</v>
       </c>
       <c r="N2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="O2" t="n">
         <v>575768.5909861258</v>
       </c>
-      <c r="O2" t="n">
-        <v>553292.8139140324</v>
-      </c>
       <c r="P2" t="n">
-        <v>553292.8139140324</v>
+        <v>575768.5909861255</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>493391.684410647</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>91792.63957446997</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>697413.3866606108</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>27506.01327461973</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>154726.5356832157</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21342.09858220099</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104633.2536641693</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218780.3249983351</v>
+        <v>244465.9635861107</v>
       </c>
       <c r="C4" t="n">
         <v>218780.3249983351</v>
@@ -26424,40 +26426,40 @@
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>24868.64244224533</v>
+        <v>32032.95503079763</v>
       </c>
       <c r="F4" t="n">
-        <v>24868.64244224533</v>
+        <v>32032.95503079763</v>
       </c>
       <c r="G4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079765</v>
       </c>
       <c r="H4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.95503079763</v>
       </c>
       <c r="I4" t="n">
         <v>32032.95503079769</v>
       </c>
       <c r="J4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079768</v>
       </c>
       <c r="K4" t="n">
         <v>32032.95503079769</v>
       </c>
       <c r="L4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079768</v>
       </c>
       <c r="M4" t="n">
         <v>32032.95503079769</v>
       </c>
       <c r="N4" t="n">
+        <v>32032.95503079768</v>
+      </c>
+      <c r="O4" t="n">
         <v>32032.95503079769</v>
       </c>
-      <c r="O4" t="n">
-        <v>24868.64244224531</v>
-      </c>
       <c r="P4" t="n">
-        <v>24868.64244224533</v>
+        <v>32032.95503079769</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>76261.10613140117</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>90281.88698203926</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>90281.88698203926</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26506,10 +26508,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>90281.88698203926</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>90281.88698203926</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-296351.9991246841</v>
+        <v>-218863.4709765532</v>
       </c>
       <c r="C6" t="n">
-        <v>293615.8800898602</v>
+        <v>201823.2405153901</v>
       </c>
       <c r="D6" t="n">
-        <v>293615.8800898601</v>
+        <v>293615.8800898604</v>
       </c>
       <c r="E6" t="n">
-        <v>-259271.102170863</v>
+        <v>-280025.2962917922</v>
       </c>
       <c r="F6" t="n">
-        <v>438142.2844897479</v>
+        <v>447352.117701614</v>
       </c>
       <c r="G6" t="n">
-        <v>419846.1044269948</v>
+        <v>447352.1177016146</v>
       </c>
       <c r="H6" t="n">
+        <v>447352.1177016144</v>
+      </c>
+      <c r="I6" t="n">
+        <v>447352.1177016147</v>
+      </c>
+      <c r="J6" t="n">
+        <v>292625.5820183986</v>
+      </c>
+      <c r="K6" t="n">
+        <v>426010.0191194133</v>
+      </c>
+      <c r="L6" t="n">
+        <v>447352.1177016143</v>
+      </c>
+      <c r="M6" t="n">
+        <v>317709.8028626697</v>
+      </c>
+      <c r="N6" t="n">
+        <v>447352.1177016146</v>
+      </c>
+      <c r="O6" t="n">
         <v>447352.1177016145</v>
       </c>
-      <c r="I6" t="n">
-        <v>447352.1177016146</v>
-      </c>
-      <c r="J6" t="n">
-        <v>270928.8985090216</v>
-      </c>
-      <c r="K6" t="n">
-        <v>447352.1177016142</v>
-      </c>
-      <c r="L6" t="n">
-        <v>447352.1177016144</v>
-      </c>
-      <c r="M6" t="n">
-        <v>342718.8640374452</v>
-      </c>
-      <c r="N6" t="n">
-        <v>447352.1177016145</v>
-      </c>
-      <c r="O6" t="n">
-        <v>438142.2844897479</v>
-      </c>
       <c r="P6" t="n">
-        <v>438142.2844897479</v>
+        <v>447352.1177016141</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>306.359917843549</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>591.3628276712468</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545555</v>
@@ -26796,10 +26798,10 @@
         <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1094.157153110285</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>1094.157153110285</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26826,10 +26828,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>1094.157153110285</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="P4" t="n">
-        <v>1094.157153110285</v>
+        <v>1194.51293060493</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>306.359917843549</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>71.38374637353763</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>591.3628276712468</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>82.92444508330868</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>419.8698803557299</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>100.3557774946448</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>591.3628276712468</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>82.92444508330868</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>419.8698803557299</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>591.3628276712468</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>82.92444508330868</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>419.8698803557299</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>100.3557774946448</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>83.76006498676554</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>72.5047714517433</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>204.5749760135891</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,10 +27460,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27524,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>21.59656354322414</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.90169565731848</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>152.4531265631663</v>
       </c>
       <c r="S4" t="n">
-        <v>135.5366709554938</v>
+        <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>31.10669484839721</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>77.87147901532404</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>51.16673875341047</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>122.3915272571653</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>56.01837628787183</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>128.2387900191175</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>139.4392913138576</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>33.14692887354698</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>15.5387741876636</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28548,7 +28550,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-4.228482943101975e-12</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28813,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.274919480332254e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.231597659672558</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>12.61309953212159</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>47.48116877452633</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>104.5303118676339</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>156.6638408015733</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>194.3553476787773</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>216.2577725589792</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>219.7570494095239</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>207.5103501811548</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>177.1052829579885</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>132.998691770965</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>77.36434648940639</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>28.06503166978844</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>5.391318755216624</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.09852781277380461</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.6589628421540488</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>6.364193765014104</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>22.68797504784774</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>62.2575376440367</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>106.408048068358</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>143.07875219665</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>166.9661552247342</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>171.3852525302322</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>156.7840232382925</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>125.8330009723815</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>84.1160287633835</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>40.91349997163473</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>12.23994577422103</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>2.656082683945485</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.04335281856276638</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.5524523108654161</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>4.911803272967068</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>16.61374767584361</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>39.05837837818492</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>64.18491393509106</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>82.13459174448198</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>86.59941087502155</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>84.54027044361415</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>78.08662299395904</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>66.81659585230449</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>46.2603475943759</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>24.84026481400316</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>9.627737090263658</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.360478055515868</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03013376241084092</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31841,7 +31843,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
         <v>508.9565619138796</v>
@@ -32093,10 +32095,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32324,7 +32326,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32333,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32552,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32792,7 +32794,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -33041,7 +33043,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33506,7 +33508,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33752,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33983,7 +33985,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34226,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34454,7 +34456,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>92.58102251302134</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>260.7194023277575</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>376.2501472592405</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>435.4250728245389</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>427.6909102249171</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>358.2123200222135</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>267.6709953742017</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>123.0079925564202</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>61.51094631777885</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>233.0318461065776</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>164.5089681530089</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>490.5371850527158</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>519.3859147904525</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>408.0500980705775</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>310.3213621979884</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>154.2115424132111</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>41.91542210920821</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>109.7246170047981</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>126.1832878368621</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>128.6724428228428</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>102.6717509079987</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>64.09515511719798</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279158</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,13 +35424,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>410.4435480214012</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35489,7 +35491,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
         <v>370.4021821340054</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>410.4435480214012</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35741,10 +35743,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>318.3309425707625</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35972,7 +35974,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -35981,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>258.3236387357551</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>739.5540726950834</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36440,7 +36442,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>559.3763608778464</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36613,7 +36615,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>318.3309425707625</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36689,7 +36691,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36835,22 +36837,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>262.4358392395079</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37081,13 +37083,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>611.8392473737334</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>318.3309425707625</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37154,7 +37156,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37400,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37543,22 +37545,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>559.3763608778464</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37631,7 +37633,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>559.9877854470799</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>764.7800274505901</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
@@ -37798,7 +37800,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37874,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38017,28 +38019,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>608.6709516843423</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>565.7252453354564</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38104,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2156815.46915174</v>
+        <v>2151075.354443524</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095104</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>50.28000692771541</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
         <v>162.9947207958796</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174327</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>165.1561246648799</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356735</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.2443341810084</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>80.33064353907116</v>
       </c>
       <c r="T3" t="n">
         <v>197.5086460108761</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>184.0861322340802</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>117.6849838256494</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848786</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>255.4163034881938</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>356.681260877744</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>318.5643619250586</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -980,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.445065564638</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>28.44734925172043</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>33.77936158462987</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>111.7848761944317</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>270.7773459850742</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.58397576725071</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>142.6271181085172</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292724</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>175.3135296855424</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1548,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>6.048021790558004</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056171</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492403</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>68.34093116330482</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>59.30629139240383</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>183.0172251110638</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534547</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292512</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C22" t="n">
-        <v>145.6911677128805</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>22.27849072790141</v>
       </c>
       <c r="E25" t="n">
-        <v>73.34931970216554</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>273.628934045296</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>87.7203668177456</v>
       </c>
     </row>
     <row r="29">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>78.51287301450918</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,10 +3009,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873217</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>163.4467615872994</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>37.59617708813238</v>
+        <v>224.7562560951389</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
-        <v>136.9968647819697</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3796,7 +3796,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>167.2486777701801</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3994,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>21.68724038440379</v>
+        <v>156.3460220671599</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1795.940509280693</v>
+        <v>1354.597650347257</v>
       </c>
       <c r="C2" t="n">
-        <v>1426.977992340281</v>
+        <v>985.6351334068452</v>
       </c>
       <c r="D2" t="n">
-        <v>1426.977992340281</v>
+        <v>985.6351334068452</v>
       </c>
       <c r="E2" t="n">
-        <v>1041.189739742037</v>
+        <v>599.8468808086009</v>
       </c>
       <c r="F2" t="n">
-        <v>630.2038349524291</v>
+        <v>592.9013800593974</v>
       </c>
       <c r="G2" t="n">
-        <v>211.9501583307498</v>
+        <v>542.1134942738263</v>
       </c>
       <c r="H2" t="n">
         <v>211.9501583307498</v>
@@ -4333,13 +4333,13 @@
         <v>138.9642385015909</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060707</v>
+        <v>397.0764468060709</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927189</v>
+        <v>769.5640925927191</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689012</v>
+        <v>1200.634914689013</v>
       </c>
       <c r="N2" t="n">
         <v>1624.04891581168</v>
@@ -4348,34 +4348,34 @@
         <v>1978.679112633672</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054131</v>
+        <v>2243.673398054132</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684987</v>
+        <v>2365.451310684988</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684987</v>
+        <v>2292.214167804439</v>
       </c>
       <c r="S2" t="n">
-        <v>2182.668444102707</v>
+        <v>2292.214167804439</v>
       </c>
       <c r="T2" t="n">
-        <v>1962.764877629056</v>
+        <v>2292.214167804439</v>
       </c>
       <c r="U2" t="n">
-        <v>1962.764877629056</v>
+        <v>2038.429192960941</v>
       </c>
       <c r="V2" t="n">
-        <v>1962.764877629056</v>
+        <v>1707.366305617371</v>
       </c>
       <c r="W2" t="n">
-        <v>1962.764877629056</v>
+        <v>1354.597650347257</v>
       </c>
       <c r="X2" t="n">
-        <v>1795.940509280693</v>
+        <v>1354.597650347257</v>
       </c>
       <c r="Y2" t="n">
-        <v>1795.940509280693</v>
+        <v>1354.597650347257</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>665.4693852489434</v>
+        <v>783.40913517655</v>
       </c>
       <c r="C3" t="n">
-        <v>665.4693852489434</v>
+        <v>608.956105895423</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4693852489434</v>
+        <v>460.0216962341717</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2319302434878</v>
+        <v>300.7842412287162</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703728</v>
+        <v>154.2496832556011</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6321658854671</v>
+        <v>154.2496832556011</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="I3" t="n">
         <v>47.30902621369975</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683008</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138126</v>
+        <v>278.0105538592115</v>
       </c>
       <c r="L3" t="n">
-        <v>501.7702691852914</v>
+        <v>649.6216244022442</v>
       </c>
       <c r="M3" t="n">
-        <v>987.40208238748</v>
+        <v>1135.253437604433</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030028</v>
+        <v>1649.445493246981</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.5637351199</v>
+        <v>2053.415090336853</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695908</v>
+        <v>2360.633238912861</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684987</v>
+        <v>2365.451310684988</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885989</v>
+        <v>2365.451310684988</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.55478592678</v>
+        <v>2284.309246504108</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087511</v>
+        <v>2084.805563664839</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549721</v>
+        <v>1856.625736127049</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.719167317978</v>
+        <v>1621.473627895306</v>
       </c>
       <c r="W3" t="n">
-        <v>1227.481810589777</v>
+        <v>1367.236271167105</v>
       </c>
       <c r="X3" t="n">
-        <v>1019.630310384244</v>
+        <v>1159.384770961572</v>
       </c>
       <c r="Y3" t="n">
-        <v>833.6847222690114</v>
+        <v>951.6244721966179</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.158320899041</v>
+        <v>166.1827472497093</v>
       </c>
       <c r="C4" t="n">
-        <v>102.158320899041</v>
+        <v>166.1827472497093</v>
       </c>
       <c r="D4" t="n">
-        <v>102.158320899041</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="E4" t="n">
-        <v>102.158320899041</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="F4" t="n">
-        <v>102.158320899041</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="G4" t="n">
-        <v>102.158320899041</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="H4" t="n">
-        <v>102.158320899041</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="I4" t="n">
-        <v>102.158320899041</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="J4" t="n">
         <v>47.30902621369975</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181586</v>
+        <v>88.8052941018159</v>
       </c>
       <c r="L4" t="n">
-        <v>197.432664936566</v>
+        <v>197.4326649365661</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950595</v>
+        <v>322.3541198950596</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896739</v>
+        <v>449.739838289674</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885926</v>
+        <v>551.3848716885927</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546186</v>
+        <v>614.8390752546188</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546186</v>
+        <v>614.8390752546188</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546186</v>
+        <v>614.8390752546188</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546186</v>
+        <v>614.8390752546188</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546186</v>
+        <v>386.9753263932394</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546186</v>
+        <v>386.9753263932394</v>
       </c>
       <c r="V4" t="n">
-        <v>360.1545870487317</v>
+        <v>386.9753263932394</v>
       </c>
       <c r="W4" t="n">
-        <v>102.158320899041</v>
+        <v>386.9753263932394</v>
       </c>
       <c r="X4" t="n">
-        <v>102.158320899041</v>
+        <v>386.9753263932394</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.158320899041</v>
+        <v>166.1827472497093</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>414.2270837170756</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519314</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.097842756629</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.958510780817</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
         <v>665.1105362747051</v>
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4658,37 +4658,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.0633493392339</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>257.0633493392339</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D7" t="n">
-        <v>257.0633493392339</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>257.0633493392339</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>257.0633493392339</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>88.06354907756634</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117851</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036444</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.028897504873</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.028897504873</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W8" t="n">
-        <v>2000.260242234759</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>2000.260242234759</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1610.120910258947</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417901</v>
@@ -4913,13 +4913,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207637</v>
@@ -4928,7 +4928,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9727148150932</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150932</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027575</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036444</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>714.4077965627466</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>566.2611379969305</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>351.9727148150932</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>351.9727148150932</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>351.9727148150932</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>351.9727148150932</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>351.9727148150932</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>351.9727148150932</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y10" t="n">
-        <v>351.9727148150932</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001598</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208927</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
@@ -5053,40 +5053,40 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>972.7495048756253</v>
+        <v>584.5263537034801</v>
       </c>
       <c r="C13" t="n">
-        <v>803.8133219477185</v>
+        <v>415.5901707755733</v>
       </c>
       <c r="D13" t="n">
-        <v>653.6966825353827</v>
+        <v>415.5901707755733</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>415.5901707755733</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>415.5901707755733</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>247.8873341502922</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>101.67014736815</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230343</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V13" t="n">
-        <v>1667.240599230343</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W13" t="n">
-        <v>1377.823429193382</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X13" t="n">
-        <v>1149.833878295365</v>
+        <v>805.3189328470103</v>
       </c>
       <c r="Y13" t="n">
-        <v>1149.833878295365</v>
+        <v>584.5263537034801</v>
       </c>
     </row>
     <row r="14">
@@ -5254,61 +5254,61 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551636</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2593.249184644076</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604875</v>
@@ -5354,7 +5354,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>805.5092287479694</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C16" t="n">
-        <v>805.5092287479694</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D16" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E16" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5472,16 +5472,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1094.92639878493</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>805.5092287479694</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>805.5092287479694</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>805.5092287479694</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5503,10 +5503,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.5269503710301</v>
+        <v>567.9454261809101</v>
       </c>
       <c r="C19" t="n">
-        <v>393.5907674431232</v>
+        <v>399.0092432530032</v>
       </c>
       <c r="D19" t="n">
-        <v>243.4741280307875</v>
+        <v>399.0092432530032</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0092432530032</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0092432530032</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V19" t="n">
-        <v>1482.374715279778</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W19" t="n">
-        <v>1192.957545242817</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="X19" t="n">
-        <v>964.9679943448</v>
+        <v>970.38647015468</v>
       </c>
       <c r="Y19" t="n">
-        <v>744.1754152012699</v>
+        <v>749.5938910111498</v>
       </c>
     </row>
     <row r="20">
@@ -5731,46 +5731,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001576</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089249</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5831,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>392.8404695303064</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
         <v>95.56103444839442</v>
@@ -5940,22 +5940,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1131.039769608815</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>841.6225995718539</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>613.6330486738366</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>392.8404695303064</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5992,16 +5992,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M23" t="n">
-        <v>1770.231306037953</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>2749.9835782646</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232732</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.811212990069</v>
+        <v>431.9845838435969</v>
       </c>
       <c r="C25" t="n">
-        <v>612.8750300621621</v>
+        <v>431.9845838435969</v>
       </c>
       <c r="D25" t="n">
-        <v>462.7583906498263</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E25" t="n">
-        <v>388.668168728447</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
         <v>241.7782212305366</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104704</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.658977898817</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W25" t="n">
-        <v>1412.241807861856</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.252256963839</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.4596778203087</v>
+        <v>613.6330486738366</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6229,19 +6229,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1339.447785386687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2317.998088216516</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>414.6138567886371</v>
+        <v>410.7144041584436</v>
       </c>
       <c r="C28" t="n">
-        <v>245.6776738607302</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6411,25 +6411,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1368.353530759742</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V28" t="n">
-        <v>1113.669042553855</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W28" t="n">
-        <v>824.2518725168941</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X28" t="n">
-        <v>596.2623216188767</v>
+        <v>680.9693001177193</v>
       </c>
       <c r="Y28" t="n">
-        <v>596.2623216188767</v>
+        <v>592.3628689886833</v>
       </c>
     </row>
     <row r="29">
@@ -6442,58 +6442,58 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>416.109192788863</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844496</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903278</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604875</v>
@@ -6539,7 +6539,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>906.8613965158539</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C31" t="n">
-        <v>737.925213587947</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D31" t="n">
-        <v>587.8085741756113</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E31" t="n">
-        <v>439.8954805932182</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F31" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1355.643526557401</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>1355.643526557401</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>1127.653975659384</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.8613965158539</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D32" t="n">
         <v>1646.988141143015</v>
@@ -6688,64 +6688,64 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001598</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1236.699401366028</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2215.249704195857</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N32" t="n">
-        <v>3195.001976422504</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O32" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3384.235206686048</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C34" t="n">
-        <v>3215.299023758141</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D34" t="n">
-        <v>3065.182384345805</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>4274.768765573601</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>3985.665898699244</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>3730.981410493358</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>3730.981410493358</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>3730.981410493358</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>3565.883671516287</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3819.938960973982</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3531.125154183958</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C37" t="n">
-        <v>3362.188971256051</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D37" t="n">
-        <v>3212.072331843715</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E37" t="n">
-        <v>3064.159238261322</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>2917.269290763412</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>4778.051722419721</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>4488.948855545364</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V37" t="n">
-        <v>4450.972919092706</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="W37" t="n">
-        <v>4161.555749055745</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X37" t="n">
-        <v>3933.566198157728</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y37" t="n">
-        <v>3712.773619014198</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7177,19 +7177,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1339.447785386687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2317.998088216516</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>3297.750360443163</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7201,25 +7201,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>264.4972173763014</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1728.132337365293</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1439.029470490936</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1184.344982285049</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>894.9278122480886</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>666.9382613500712</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>446.1456822065411</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7411,28 +7411,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1172.647446689875</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2151.197749519704</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3130.950021746351</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075805</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7444,13 +7444,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>709.4168978689405</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="C43" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1697.574950508515</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U43" t="n">
-        <v>1408.472083634158</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.472083634158</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W43" t="n">
-        <v>1119.054913597198</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X43" t="n">
-        <v>891.0653626991802</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y43" t="n">
-        <v>891.0653626991802</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7648,25 +7648,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2536.15366264131</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>3515.905934867957</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
         <v>4719.034655862919</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>827.5554641779659</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C46" t="n">
-        <v>658.619281250059</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>508.5026418377232</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.57685067423</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U46" t="n">
-        <v>1712.67054725564</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V46" t="n">
-        <v>1457.986059049753</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W46" t="n">
-        <v>1457.986059049753</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X46" t="n">
-        <v>1229.996508151736</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y46" t="n">
-        <v>1009.203929008206</v>
+        <v>613.848518831822</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>64.58008902262998</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>159.9845957362331</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>60.73248448640222</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451751</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516219</v>
+        <v>422.2865794093287</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8701,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>89.5245633896202</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>67.53663776704263</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>67.53663776704263</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9640,19 +9640,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>231.5010718068643</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9877,22 +9877,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>103.7862464855143</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>103.7862464855143</v>
+        <v>64.28566532692616</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>258.6211785616931</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>103.7862464855143</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>344.7025836476839</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>104.3976710547477</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>57.67224444723729</v>
+        <v>161.8544041422902</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.518450496394905</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.30439861928008</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>183.7967121605232</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890414</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>106.7195168666244</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>69.12041821276424</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>8.313350008393172e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
-        <v>21.55565338574732</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>126.3369822903109</v>
       </c>
       <c r="E25" t="n">
-        <v>73.08464294440363</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>12.58290416031684</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>130.8642865343492</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>66.90817500842206</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>55.1378917647954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,16 +25365,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>214.5414662356956</v>
+        <v>27.38138722868908</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
-        <v>82.55208449419945</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>52.77216054947225</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>52.30027150598914</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>264.5245978212091</v>
+        <v>129.865816138453</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>845257.7042194332</v>
+        <v>845257.7042194335</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>845257.7042194334</v>
+        <v>845257.7042194335</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>845257.7042194336</v>
+        <v>845257.7042194334</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>845257.7042194334</v>
+        <v>845257.7042194335</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>845257.7042194334</v>
+        <v>845257.7042194332</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>845257.7042194335</v>
+        <v>845257.7042194334</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516057</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
         <v>575768.5909861258</v>
       </c>
       <c r="F2" t="n">
-        <v>575768.5909861253</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="G2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="H2" t="n">
         <v>575768.5909861259</v>
-      </c>
-      <c r="H2" t="n">
-        <v>575768.5909861256</v>
       </c>
       <c r="I2" t="n">
         <v>575768.590986126</v>
       </c>
       <c r="J2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="K2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="L2" t="n">
+        <v>575768.5909861261</v>
+      </c>
+      <c r="M2" t="n">
+        <v>575768.5909861255</v>
+      </c>
+      <c r="N2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="O2" t="n">
         <v>575768.5909861256</v>
       </c>
-      <c r="K2" t="n">
-        <v>575768.5909861256</v>
-      </c>
-      <c r="L2" t="n">
-        <v>575768.5909861256</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>575768.5909861259</v>
-      </c>
-      <c r="N2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="O2" t="n">
-        <v>575768.5909861258</v>
-      </c>
-      <c r="P2" t="n">
-        <v>575768.5909861255</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.684410647</v>
+        <v>493391.6844106471</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446997</v>
+        <v>91792.63957446993</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>154726.5356832157</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220099</v>
+        <v>21342.09858220106</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>244465.9635861107</v>
       </c>
       <c r="C4" t="n">
-        <v>218780.3249983351</v>
+        <v>218780.324998335</v>
       </c>
       <c r="D4" t="n">
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>32032.95503079763</v>
+        <v>32032.95503079771</v>
       </c>
       <c r="F4" t="n">
-        <v>32032.95503079763</v>
+        <v>32032.95503079772</v>
       </c>
       <c r="G4" t="n">
-        <v>32032.95503079765</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="H4" t="n">
-        <v>32032.95503079763</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="I4" t="n">
         <v>32032.95503079769</v>
       </c>
       <c r="J4" t="n">
-        <v>32032.95503079768</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="K4" t="n">
+        <v>32032.9550307977</v>
+      </c>
+      <c r="L4" t="n">
+        <v>32032.95503079765</v>
+      </c>
+      <c r="M4" t="n">
+        <v>32032.9550307977</v>
+      </c>
+      <c r="N4" t="n">
         <v>32032.95503079769</v>
-      </c>
-      <c r="L4" t="n">
-        <v>32032.95503079768</v>
-      </c>
-      <c r="M4" t="n">
-        <v>32032.95503079769</v>
-      </c>
-      <c r="N4" t="n">
-        <v>32032.95503079768</v>
       </c>
       <c r="O4" t="n">
         <v>32032.95503079769</v>
       </c>
       <c r="P4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.9550307977</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-218863.4709765532</v>
+        <v>-218863.4709765534</v>
       </c>
       <c r="C6" t="n">
-        <v>201823.2405153901</v>
+        <v>201823.2405153903</v>
       </c>
       <c r="D6" t="n">
-        <v>293615.8800898604</v>
+        <v>293615.8800898602</v>
       </c>
       <c r="E6" t="n">
-        <v>-280025.2962917922</v>
+        <v>-280697.2511940504</v>
       </c>
       <c r="F6" t="n">
-        <v>447352.117701614</v>
+        <v>446680.1627993563</v>
       </c>
       <c r="G6" t="n">
-        <v>447352.1177016146</v>
+        <v>446680.1627993565</v>
       </c>
       <c r="H6" t="n">
-        <v>447352.1177016144</v>
+        <v>446680.1627993565</v>
       </c>
       <c r="I6" t="n">
-        <v>447352.1177016147</v>
+        <v>446680.1627993566</v>
       </c>
       <c r="J6" t="n">
-        <v>292625.5820183986</v>
+        <v>291953.6271161409</v>
       </c>
       <c r="K6" t="n">
-        <v>426010.0191194133</v>
+        <v>425338.0642171556</v>
       </c>
       <c r="L6" t="n">
-        <v>447352.1177016143</v>
+        <v>446680.1627993569</v>
       </c>
       <c r="M6" t="n">
-        <v>317709.8028626697</v>
+        <v>317037.8479604114</v>
       </c>
       <c r="N6" t="n">
-        <v>447352.1177016146</v>
+        <v>446680.1627993567</v>
       </c>
       <c r="O6" t="n">
-        <v>447352.1177016145</v>
+        <v>446680.1627993563</v>
       </c>
       <c r="P6" t="n">
-        <v>447352.1177016141</v>
+        <v>446680.1627993565</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.359917843549</v>
+        <v>306.3599178435491</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712468</v>
+        <v>591.3628276712469</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545555</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.359917843549</v>
+        <v>306.3599178435491</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353763</v>
+        <v>71.38374637353756</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712468</v>
+        <v>591.3628276712469</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330868</v>
+        <v>82.92444508330874</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.225657850375</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712468</v>
+        <v>591.3628276712469</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330868</v>
+        <v>82.92444508330897</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712468</v>
+        <v>591.3628276712469</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330868</v>
+        <v>82.92444508330874</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.225657850375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>363.7911329277471</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836456</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.5047714517433</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>204.5749760135891</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,10 +27460,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356733</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.24433418100839</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>79.11258179054562</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.59656354322414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>30.93048919256296</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,7 +27560,7 @@
         <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>54.30080173848784</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731848</v>
+        <v>39.90169565731847</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
@@ -27590,22 +27590,22 @@
         <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5851113727656</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>31.10669484839721</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>57.10290914305097</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>51.16673875341047</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,19 +27779,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>120.1681237664919</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>122.3915272571653</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>139.4392913138576</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>56.97491248506071</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.5387741876636</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>83.08253728051997</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28550,7 +28550,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-4.228482943101975e-12</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.274919480332254e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>12.61309953212159</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452633</v>
+        <v>47.48116877452635</v>
       </c>
       <c r="J2" t="n">
         <v>104.5303118676339</v>
@@ -31056,34 +31056,34 @@
         <v>156.6638408015733</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787773</v>
+        <v>194.3553476787774</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589792</v>
+        <v>216.2577725589793</v>
       </c>
       <c r="N2" t="n">
         <v>219.7570494095239</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811548</v>
+        <v>207.5103501811549</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579885</v>
+        <v>177.1052829579886</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.998691770965</v>
+        <v>132.9986917709651</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940639</v>
+        <v>77.36434648940642</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978844</v>
+        <v>28.06503166978845</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216624</v>
+        <v>5.391318755216627</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380461</v>
+        <v>0.09852781277380465</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540488</v>
+        <v>0.6589628421540491</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014104</v>
+        <v>6.364193765014106</v>
       </c>
       <c r="I3" t="n">
         <v>22.68797504784774</v>
       </c>
       <c r="J3" t="n">
-        <v>62.2575376440367</v>
+        <v>62.25753764403672</v>
       </c>
       <c r="K3" t="n">
         <v>106.408048068358</v>
@@ -31138,10 +31138,10 @@
         <v>143.07875219665</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247342</v>
+        <v>166.9661552247343</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302322</v>
+        <v>171.3852525302323</v>
       </c>
       <c r="O3" t="n">
         <v>156.7840232382925</v>
@@ -31150,19 +31150,19 @@
         <v>125.8330009723815</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.1160287633835</v>
+        <v>84.11602876338353</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163473</v>
+        <v>40.91349997163474</v>
       </c>
       <c r="S3" t="n">
         <v>12.23994577422103</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945485</v>
+        <v>2.656082683945486</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276638</v>
+        <v>0.0433528185627664</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654161</v>
+        <v>0.5524523108654164</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967068</v>
+        <v>4.911803272967069</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584361</v>
+        <v>16.61374767584362</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818492</v>
+        <v>39.05837837818493</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509106</v>
+        <v>64.18491393509109</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448198</v>
+        <v>82.13459174448201</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502155</v>
+        <v>86.59941087502158</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361415</v>
+        <v>84.54027044361419</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395904</v>
+        <v>78.08662299395907</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230449</v>
+        <v>66.81659585230452</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.2603475943759</v>
+        <v>46.26034759437592</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400316</v>
+        <v>24.84026481400317</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263658</v>
+        <v>9.627737090263661</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515868</v>
+        <v>2.360478055515869</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084092</v>
+        <v>0.03013376241084093</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
         <v>508.9565619138796</v>
@@ -31861,7 +31861,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32326,7 +32326,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33043,7 +33043,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33754,10 +33754,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33985,7 +33985,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34228,10 +34228,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34456,7 +34456,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302134</v>
+        <v>92.58102251302138</v>
       </c>
       <c r="K2" t="n">
         <v>260.7194023277575</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592405</v>
+        <v>376.2501472592406</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245389</v>
+        <v>435.425072824539</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249171</v>
+        <v>427.6909102249172</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222135</v>
+        <v>358.2123200222136</v>
       </c>
       <c r="P2" t="n">
         <v>267.6709953742017</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564202</v>
+        <v>123.0079925564203</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777885</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>233.0318461065776</v>
       </c>
       <c r="L3" t="n">
-        <v>164.5089681530089</v>
+        <v>375.364717720235</v>
       </c>
       <c r="M3" t="n">
         <v>490.5371850527158</v>
@@ -34792,13 +34792,13 @@
         <v>519.3859147904525</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705775</v>
+        <v>408.0500980705776</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979884</v>
+        <v>310.3213621979885</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132111</v>
+        <v>4.866739163764229</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920821</v>
+        <v>41.91542210920824</v>
       </c>
       <c r="L4" t="n">
         <v>109.7246170047981</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368621</v>
+        <v>126.1832878368622</v>
       </c>
       <c r="N4" t="n">
         <v>128.6724428228428</v>
@@ -34874,7 +34874,7 @@
         <v>102.6717509079987</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719798</v>
+        <v>64.095155117198</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355119</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279158</v>
+        <v>486.0228424856226</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35421,10 +35421,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>897.0044190605962</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35491,7 +35491,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
         <v>370.4021821340054</v>
@@ -35509,7 +35509,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>628.445679219847</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>575.5896386552618</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35670,7 +35670,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>575.5896386552618</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36360,19 +36360,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>739.5540726950834</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>559.3763608778464</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36691,7 +36691,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257258</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37080,13 +37080,13 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>611.8392473737334</v>
+        <v>572.3386662151453</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>657.3831647810649</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>559.3763608778464</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>883.6236994779107</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37633,7 +37633,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>559.9877854470799</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>565.7252453354564</v>
+        <v>669.9074050305093</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38104,7 +38104,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2151075.354443524</v>
+        <v>2154480.845567973</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359935</v>
+        <v>6663746.095359937</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>40.23870257620665</v>
       </c>
       <c r="G2" t="n">
-        <v>50.28000692771541</v>
+        <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836456</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958796</v>
+        <v>162.9947207958798</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174327</v>
+        <v>72.50477145174372</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164571</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -752,10 +752,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>114.9594000645586</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714824</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.24433418100863</v>
       </c>
       <c r="S3" t="n">
-        <v>80.33064353907116</v>
+        <v>159.4432253296169</v>
       </c>
       <c r="T3" t="n">
         <v>197.5086460108761</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>117.6849838256494</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5851113727656</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>14.82264199826258</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>252.7077160573364</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>356.681260877744</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>28.44734925172043</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>28.44734925172043</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>290.5081575871955</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>270.7773459850742</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>54.70191565295227</v>
       </c>
       <c r="X10" t="n">
-        <v>142.6271181085172</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292724</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1548,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>6.048021790558004</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>200.0072158925964</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492403</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>156.0726817661518</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>59.30629139240383</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -2058,19 +2058,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>137.3439741618281</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492404</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>22.27849072790141</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>29.40349276484374</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>87.7203668177456</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>243.6035269948941</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3046,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873217</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3240,10 +3240,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>224.7562560951389</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>131.6653792309046</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3796,7 +3796,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>114.4746605491556</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>83.65430578147905</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3994,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4033,7 +4033,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>169.6984002028144</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>156.3460220671599</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1354.597650347257</v>
+        <v>1425.599758608466</v>
       </c>
       <c r="C2" t="n">
-        <v>985.6351334068452</v>
+        <v>1056.637241668054</v>
       </c>
       <c r="D2" t="n">
-        <v>985.6351334068452</v>
+        <v>1056.637241668054</v>
       </c>
       <c r="E2" t="n">
-        <v>599.8468808086009</v>
+        <v>670.8489890698097</v>
       </c>
       <c r="F2" t="n">
-        <v>592.9013800593974</v>
+        <v>630.2038349524292</v>
       </c>
       <c r="G2" t="n">
-        <v>542.1134942738263</v>
+        <v>211.9501583307499</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307498</v>
+        <v>211.9501583307499</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369959</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015909</v>
+        <v>138.9642385015902</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060709</v>
+        <v>397.0764468060692</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927191</v>
+        <v>769.5640925927162</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689013</v>
+        <v>1200.634914689009</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.04891581168</v>
+        <v>1624.048915811675</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633672</v>
+        <v>1978.679112633665</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054132</v>
+        <v>2243.673398054124</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684988</v>
+        <v>2365.451310684979</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804439</v>
+        <v>2292.21416780443</v>
       </c>
       <c r="S2" t="n">
-        <v>2292.214167804439</v>
+        <v>2109.431301222151</v>
       </c>
       <c r="T2" t="n">
-        <v>2292.214167804439</v>
+        <v>2109.431301222151</v>
       </c>
       <c r="U2" t="n">
-        <v>2038.429192960941</v>
+        <v>2109.431301222151</v>
       </c>
       <c r="V2" t="n">
-        <v>1707.366305617371</v>
+        <v>1778.36841387858</v>
       </c>
       <c r="W2" t="n">
-        <v>1354.597650347257</v>
+        <v>1425.599758608466</v>
       </c>
       <c r="X2" t="n">
-        <v>1354.597650347257</v>
+        <v>1425.599758608466</v>
       </c>
       <c r="Y2" t="n">
-        <v>1354.597650347257</v>
+        <v>1425.599758608466</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>783.40913517655</v>
+        <v>643.6546745992139</v>
       </c>
       <c r="C3" t="n">
-        <v>608.956105895423</v>
+        <v>469.2016453180869</v>
       </c>
       <c r="D3" t="n">
-        <v>460.0216962341717</v>
+        <v>469.2016453180869</v>
       </c>
       <c r="E3" t="n">
-        <v>300.7842412287162</v>
+        <v>309.9641903126314</v>
       </c>
       <c r="F3" t="n">
-        <v>154.2496832556011</v>
+        <v>163.4296323395164</v>
       </c>
       <c r="G3" t="n">
-        <v>154.2496832556011</v>
+        <v>47.30902621369959</v>
       </c>
       <c r="H3" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369959</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369959</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369959</v>
       </c>
       <c r="K3" t="n">
-        <v>278.0105538592115</v>
+        <v>130.1591986422554</v>
       </c>
       <c r="L3" t="n">
-        <v>649.6216244022442</v>
+        <v>501.7702691852872</v>
       </c>
       <c r="M3" t="n">
-        <v>1135.253437604433</v>
+        <v>987.4020823874749</v>
       </c>
       <c r="N3" t="n">
-        <v>1649.445493246981</v>
+        <v>1501.594138030022</v>
       </c>
       <c r="O3" t="n">
-        <v>2053.415090336853</v>
+        <v>1905.563735119893</v>
       </c>
       <c r="P3" t="n">
-        <v>2360.633238912861</v>
+        <v>2212.781883695901</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684988</v>
+        <v>2365.451310684979</v>
       </c>
       <c r="R3" t="n">
-        <v>2365.451310684988</v>
+        <v>2305.608548885981</v>
       </c>
       <c r="S3" t="n">
-        <v>2284.309246504108</v>
+        <v>2144.554785926772</v>
       </c>
       <c r="T3" t="n">
-        <v>2084.805563664839</v>
+        <v>1945.051103087503</v>
       </c>
       <c r="U3" t="n">
-        <v>1856.625736127049</v>
+        <v>1716.871275549713</v>
       </c>
       <c r="V3" t="n">
-        <v>1621.473627895306</v>
+        <v>1481.71916731797</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.236271167105</v>
+        <v>1227.481810589769</v>
       </c>
       <c r="X3" t="n">
-        <v>1159.384770961572</v>
+        <v>1019.630310384236</v>
       </c>
       <c r="Y3" t="n">
-        <v>951.6244721966179</v>
+        <v>811.870011619282</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.1827472497093</v>
+        <v>197.4256656260353</v>
       </c>
       <c r="C4" t="n">
-        <v>166.1827472497093</v>
+        <v>197.4256656260353</v>
       </c>
       <c r="D4" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369959</v>
       </c>
       <c r="E4" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369959</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369959</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369959</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369959</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369959</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369959</v>
       </c>
       <c r="K4" t="n">
-        <v>88.8052941018159</v>
+        <v>88.80529410181538</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365661</v>
+        <v>197.4326649365651</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950596</v>
+        <v>322.3541198950581</v>
       </c>
       <c r="N4" t="n">
-        <v>449.739838289674</v>
+        <v>449.739838289672</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885927</v>
+        <v>551.3848716885902</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546188</v>
+        <v>614.8390752546159</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546188</v>
+        <v>614.8390752546159</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546188</v>
+        <v>614.8390752546159</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546188</v>
+        <v>614.8390752546159</v>
       </c>
       <c r="T4" t="n">
-        <v>386.9753263932394</v>
+        <v>614.8390752546159</v>
       </c>
       <c r="U4" t="n">
-        <v>386.9753263932394</v>
+        <v>614.8390752546159</v>
       </c>
       <c r="V4" t="n">
-        <v>386.9753263932394</v>
+        <v>614.8390752546159</v>
       </c>
       <c r="W4" t="n">
-        <v>386.9753263932394</v>
+        <v>614.8390752546159</v>
       </c>
       <c r="X4" t="n">
-        <v>386.9753263932394</v>
+        <v>599.8667095998052</v>
       </c>
       <c r="Y4" t="n">
-        <v>166.1827472497093</v>
+        <v>379.074130456275</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066831</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D5" t="n">
-        <v>825.2129885066831</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E5" t="n">
-        <v>825.2129885066831</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>414.2270837170756</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C7" t="n">
-        <v>546.4805193761945</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
         <v>517.7458231623355</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3942879925752</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2368.607930856721</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X10" t="n">
-        <v>554.6442689908469</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551633</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001598</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.557933208927</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
@@ -5047,46 +5047,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353396</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320242</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.5263537034801</v>
+        <v>875.4238276939707</v>
       </c>
       <c r="C13" t="n">
-        <v>415.5901707755733</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="D13" t="n">
-        <v>415.5901707755733</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E13" t="n">
-        <v>415.5901707755733</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>415.5901707755733</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>247.8873341502922</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>101.67014736815</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1577.410141987875</v>
+        <v>1532.549359873627</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.725653781988</v>
+        <v>1277.86487166774</v>
       </c>
       <c r="W13" t="n">
-        <v>1033.308483745028</v>
+        <v>1277.86487166774</v>
       </c>
       <c r="X13" t="n">
-        <v>805.3189328470103</v>
+        <v>1277.86487166774</v>
       </c>
       <c r="Y13" t="n">
-        <v>584.5263537034801</v>
+        <v>1057.07229252421</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551636</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>451.8458144277729</v>
@@ -5287,43 +5287,43 @@
         <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2593.249184644076</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N14" t="n">
         <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107238</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839444</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839444</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839444</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839444</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1798.69429260354</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1576.927677173066</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1576.927677173066</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1322.243188967179</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>1032.826018930219</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>804.8364680322012</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,19 +5515,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>567.9454261809101</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="C19" t="n">
-        <v>399.0092432530032</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D19" t="n">
-        <v>399.0092432530032</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E19" t="n">
-        <v>399.0092432530032</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F19" t="n">
-        <v>399.0092432530032</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
         <v>192.8867116300491</v>
@@ -5706,19 +5706,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1453.060509258584</v>
+        <v>1314.329222226435</v>
       </c>
       <c r="V19" t="n">
-        <v>1198.376021052697</v>
+        <v>1059.644734020548</v>
       </c>
       <c r="W19" t="n">
-        <v>1198.376021052697</v>
+        <v>770.2275639835872</v>
       </c>
       <c r="X19" t="n">
-        <v>970.38647015468</v>
+        <v>542.2380130855698</v>
       </c>
       <c r="Y19" t="n">
-        <v>749.5938910111498</v>
+        <v>542.2380130855698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,16 +5737,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5831,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>419.327655504578</v>
       </c>
       <c r="K23" t="n">
-        <v>1002.806306216376</v>
+        <v>753.1470291944245</v>
       </c>
       <c r="L23" t="n">
-        <v>1453.840519464784</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294613</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>431.9845838435969</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C25" t="n">
-        <v>431.9845838435969</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D25" t="n">
         <v>409.4810578558177</v>
@@ -6189,10 +6189,10 @@
         <v>841.6225995718539</v>
       </c>
       <c r="X25" t="n">
-        <v>613.6330486738366</v>
+        <v>811.9221018295875</v>
       </c>
       <c r="Y25" t="n">
-        <v>613.6330486738366</v>
+        <v>591.1295226860574</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6229,16 +6229,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>410.7144041584436</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1198.376021052697</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>908.9588510157366</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>680.9693001177193</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>592.3628689886833</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6451,64 +6451,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>416.109192788863</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.866738172571</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844496</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903278</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232733</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679679</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188667</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839444</v>
+        <v>558.6274977408367</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839444</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839444</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839444</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839444</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839444</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6654,19 +6654,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1296.826797819345</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>1007.409627782384</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>779.4200768843668</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>558.6274977408367</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551633</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001598</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
         <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2368.748013620957</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>2915.526830679739</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6888,7 +6888,7 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
         <v>1270.093287563029</v>
@@ -6903,7 +6903,7 @@
         <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786342</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6916,67 +6916,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3819.938960973982</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -7125,16 +7125,16 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1734.57685067423</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V37" t="n">
-        <v>1507.550329366009</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W37" t="n">
-        <v>1507.550329366009</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="X37" t="n">
         <v>1279.560778467991</v>
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294613</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7201,25 +7201,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7359,13 +7359,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
         <v>1015.408799357142</v>
@@ -7390,19 +7390,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7411,28 +7411,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7444,13 +7444,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>211.1920047000667</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1674.827124689058</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U43" t="n">
-        <v>1385.724257814702</v>
+        <v>1650.077551905059</v>
       </c>
       <c r="V43" t="n">
-        <v>1131.039769608815</v>
+        <v>1650.077551905059</v>
       </c>
       <c r="W43" t="n">
-        <v>841.6225995718539</v>
+        <v>1360.660381868098</v>
       </c>
       <c r="X43" t="n">
-        <v>613.6330486738366</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="Y43" t="n">
-        <v>392.8404695303064</v>
+        <v>911.8782518265509</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
         <v>1646.988141143014</v>
@@ -7636,10 +7636,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7651,25 +7651,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867999</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N44" t="n">
-        <v>2883.993034926781</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906985</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4270.801548335825</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>432.2000540015823</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="C46" t="n">
-        <v>263.2638710736754</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1606.732307116217</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V46" t="n">
-        <v>1352.04781891033</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W46" t="n">
-        <v>1062.630648873369</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X46" t="n">
-        <v>834.6410979753522</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y46" t="n">
-        <v>613.848518831822</v>
+        <v>1123.1389409875</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902262998</v>
+        <v>64.58008902263033</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>115.1204337631287</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.73248448640222</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093287</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,13 +8695,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>89.5245633896202</v>
+        <v>89.52456338961929</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>136.2499899971294</v>
       </c>
       <c r="K23" t="n">
-        <v>219.3344627260164</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9877,19 +9877,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.9990175570132</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,16 +10354,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>64.28566532692616</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>258.6211785616931</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,13 +10831,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>344.7025836476839</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11308,19 +11308,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>161.8544041422902</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>136.2499899971299</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.30439861928008</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>86.20462231301647</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>33.69634356529011</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>106.7195168666244</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>148.8678640437848</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270133</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>126.3369822903109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>196.3061626241934</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.8642865343492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>8.534116328933948</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>27.38138722868908</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>94.04427615813256</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>52.77216054947225</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>202.5575324241338</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>10.13357997912294</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>129.865816138453</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>920416.8538014741</v>
+        <v>920416.853801474</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>845257.7042194334</v>
+        <v>845257.7042194335</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>845257.7042194335</v>
+        <v>845257.7042194334</v>
       </c>
     </row>
     <row r="8">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>845257.7042194332</v>
+        <v>845257.7042194335</v>
       </c>
     </row>
     <row r="16">
@@ -26325,7 +26325,7 @@
         <v>575768.5909861258</v>
       </c>
       <c r="F2" t="n">
-        <v>575768.5909861256</v>
+        <v>575768.5909861259</v>
       </c>
       <c r="G2" t="n">
         <v>575768.5909861258</v>
@@ -26334,28 +26334,28 @@
         <v>575768.5909861259</v>
       </c>
       <c r="I2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="J2" t="n">
         <v>575768.590986126</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>575768.5909861261</v>
+      </c>
+      <c r="L2" t="n">
         <v>575768.5909861259</v>
       </c>
-      <c r="K2" t="n">
-        <v>575768.590986126</v>
-      </c>
-      <c r="L2" t="n">
-        <v>575768.5909861261</v>
-      </c>
       <c r="M2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="N2" t="n">
         <v>575768.590986126</v>
       </c>
       <c r="O2" t="n">
-        <v>575768.5909861256</v>
+        <v>575768.5909861255</v>
       </c>
       <c r="P2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861258</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106471</v>
+        <v>493391.6844106448</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446993</v>
+        <v>91792.63957447218</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832157</v>
+        <v>154726.5356832152</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220106</v>
+        <v>21342.09858220151</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244465.9635861107</v>
+        <v>244465.9635861113</v>
       </c>
       <c r="C4" t="n">
+        <v>218780.3249983351</v>
+      </c>
+      <c r="D4" t="n">
         <v>218780.324998335</v>
       </c>
-      <c r="D4" t="n">
-        <v>218780.3249983351</v>
-      </c>
       <c r="E4" t="n">
-        <v>32032.95503079771</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="F4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="G4" t="n">
         <v>32032.95503079769</v>
@@ -26438,19 +26438,19 @@
         <v>32032.95503079769</v>
       </c>
       <c r="I4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.95503079768</v>
       </c>
       <c r="J4" t="n">
         <v>32032.95503079769</v>
       </c>
       <c r="K4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="L4" t="n">
-        <v>32032.95503079765</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="M4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="N4" t="n">
         <v>32032.95503079769</v>
@@ -26459,7 +26459,7 @@
         <v>32032.95503079769</v>
       </c>
       <c r="P4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079769</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140117</v>
+        <v>76261.10613140101</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26496,10 +26496,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-218863.4709765534</v>
+        <v>-218863.4709765515</v>
       </c>
       <c r="C6" t="n">
-        <v>201823.2405153903</v>
+        <v>201823.2405153879</v>
       </c>
       <c r="D6" t="n">
         <v>293615.8800898602</v>
       </c>
       <c r="E6" t="n">
-        <v>-280697.2511940504</v>
+        <v>-280092.4917820181</v>
       </c>
       <c r="F6" t="n">
-        <v>446680.1627993563</v>
+        <v>447284.9222113886</v>
       </c>
       <c r="G6" t="n">
-        <v>446680.1627993565</v>
+        <v>447284.9222113886</v>
       </c>
       <c r="H6" t="n">
-        <v>446680.1627993565</v>
+        <v>447284.9222113886</v>
       </c>
       <c r="I6" t="n">
-        <v>446680.1627993566</v>
+        <v>447284.9222113888</v>
       </c>
       <c r="J6" t="n">
-        <v>291953.6271161409</v>
+        <v>292558.3865281736</v>
       </c>
       <c r="K6" t="n">
-        <v>425338.0642171556</v>
+        <v>425942.8236291874</v>
       </c>
       <c r="L6" t="n">
-        <v>446680.1627993569</v>
+        <v>447284.9222113886</v>
       </c>
       <c r="M6" t="n">
-        <v>317037.8479604114</v>
+        <v>317642.6073724438</v>
       </c>
       <c r="N6" t="n">
-        <v>446680.1627993567</v>
+        <v>447284.9222113889</v>
       </c>
       <c r="O6" t="n">
-        <v>446680.1627993563</v>
+        <v>447284.9222113884</v>
       </c>
       <c r="P6" t="n">
-        <v>446680.1627993565</v>
+        <v>447284.9222113886</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435491</v>
+        <v>306.3599178435474</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712469</v>
+        <v>591.3628276712449</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435491</v>
+        <v>306.3599178435474</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353756</v>
+        <v>71.38374637353932</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712469</v>
+        <v>591.3628276712449</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330874</v>
+        <v>82.92444508331073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.225657850375</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712469</v>
+        <v>591.3628276712449</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330897</v>
+        <v>82.92444508331073</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712469</v>
+        <v>591.3628276712449</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330874</v>
+        <v>82.92444508331073</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.225657850375</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>366.6373431655048</v>
       </c>
       <c r="G2" t="n">
-        <v>363.7911329277471</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>217.7045308089148</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27463,7 +27463,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>21.72515425649799</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356733</v>
+        <v>66.70865780356746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100839</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>79.11258179054562</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>30.93048919256296</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,10 +27557,10 @@
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514147</v>
+        <v>138.8367272514148</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848784</v>
+        <v>54.30080173848806</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731847</v>
+        <v>39.90169565731874</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631663</v>
+        <v>152.4531265631664</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467086</v>
+        <v>214.3888609467087</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
         <v>286.28889559408</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>210.8870133907746</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>57.10290914305097</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>120.1681237664919</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>190.1373041003744</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>92.22568407628506</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>56.97491248506071</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>231.8210826836387</v>
       </c>
       <c r="X10" t="n">
-        <v>83.08253728051997</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672558</v>
+        <v>1.231597659672551</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212159</v>
+        <v>12.61309953212152</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452635</v>
+        <v>47.48116877452608</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676339</v>
+        <v>104.5303118676333</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015733</v>
+        <v>156.6638408015724</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787774</v>
+        <v>194.3553476787763</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589793</v>
+        <v>216.257772558978</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095239</v>
+        <v>219.7570494095227</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811549</v>
+        <v>207.5103501811537</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579886</v>
+        <v>177.1052829579876</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709651</v>
+        <v>132.9986917709643</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940642</v>
+        <v>77.36434648940596</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978845</v>
+        <v>28.06503166978829</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216627</v>
+        <v>5.391318755216596</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380465</v>
+        <v>0.09852781277380408</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540491</v>
+        <v>0.6589628421540452</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014106</v>
+        <v>6.36419376501407</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784774</v>
+        <v>22.68797504784762</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403672</v>
+        <v>62.25753764403636</v>
       </c>
       <c r="K3" t="n">
-        <v>106.408048068358</v>
+        <v>106.4080480683574</v>
       </c>
       <c r="L3" t="n">
-        <v>143.07875219665</v>
+        <v>143.0787521966492</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247343</v>
+        <v>166.9661552247333</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302323</v>
+        <v>171.3852525302313</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382925</v>
+        <v>156.7840232382916</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723815</v>
+        <v>125.8330009723808</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338353</v>
+        <v>84.11602876338304</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163474</v>
+        <v>40.91349997163451</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422103</v>
+        <v>12.23994577422096</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945486</v>
+        <v>2.656082683945471</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0433528185627664</v>
+        <v>0.04335281856276615</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654164</v>
+        <v>0.5524523108654132</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967069</v>
+        <v>4.911803272967041</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584362</v>
+        <v>16.61374767584352</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818493</v>
+        <v>39.05837837818471</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509109</v>
+        <v>64.18491393509072</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448201</v>
+        <v>82.13459174448154</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502158</v>
+        <v>86.59941087502108</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361419</v>
+        <v>84.54027044361369</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395907</v>
+        <v>78.08662299395861</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230452</v>
+        <v>66.81659585230413</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437592</v>
+        <v>46.26034759437565</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400317</v>
+        <v>24.84026481400303</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263661</v>
+        <v>9.627737090263606</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515869</v>
+        <v>2.360478055515856</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084093</v>
+        <v>0.03013376241084076</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31861,7 +31861,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33037,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33511,7 +33511,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34228,10 +34228,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302138</v>
+        <v>92.58102251302077</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277575</v>
+        <v>260.7194023277566</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592406</v>
+        <v>376.2501472592395</v>
       </c>
       <c r="M2" t="n">
-        <v>435.425072824539</v>
+        <v>435.4250728245378</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249172</v>
+        <v>427.6909102249159</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222136</v>
+        <v>358.2123200222123</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742017</v>
+        <v>267.6709953742007</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564203</v>
+        <v>123.0079925564195</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065776</v>
+        <v>83.68704285712707</v>
       </c>
       <c r="L3" t="n">
-        <v>375.364717720235</v>
+        <v>375.3647177202342</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527158</v>
+        <v>490.5371850527149</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904525</v>
+        <v>519.3859147904515</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705776</v>
+        <v>408.0500980705767</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979885</v>
+        <v>310.3213621979878</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.866739163764229</v>
+        <v>154.2115424132106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920824</v>
+        <v>41.91542210920787</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047981</v>
+        <v>109.7246170047977</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368622</v>
+        <v>126.1832878368617</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228428</v>
+        <v>128.6724428228423</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079987</v>
+        <v>102.6717509079983</v>
       </c>
       <c r="P4" t="n">
-        <v>64.095155117198</v>
+        <v>64.09515511719762</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,10 +35023,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856226</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>897.0044190605962</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
         <v>508.0530008882191</v>
@@ -35509,7 +35509,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>628.445679219847</v>
+        <v>628.4456792198461</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
@@ -35898,7 +35898,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>327.036990965842</v>
       </c>
       <c r="K23" t="n">
-        <v>556.5257492814169</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36685,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>323.7860185257258</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
@@ -36855,7 +36855,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>572.3386662151453</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37159,7 +37159,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>657.3831647810649</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
@@ -37551,13 +37551,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>883.6236994779107</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
@@ -37803,7 +37803,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
@@ -38028,19 +38028,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>669.9074050305093</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>387.0442948008494</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
